--- a/GameData/技能分配简表/战技/战技：剑熟练度对应职业技能列表.xlsx
+++ b/GameData/技能分配简表/战技/战技：剑熟练度对应职业技能列表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FE_Proj\FE8U-cSkillSystem\Readme-Files\战技\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FE_Proj\FE8U-cSkillSystem\GameData\技能分配简表\战技\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1480B4AB-2B95-4A7B-907D-2E664B2B5874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62E16A1-5A06-4B56-84EE-8FEE39DB38DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4900" yWindow="3540" windowWidth="16200" windowHeight="10510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13390" yWindow="2110" windowWidth="16200" windowHeight="10510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>职业名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,13 +94,20 @@
   </si>
   <si>
     <t>暗杀</t>
+  </si>
+  <si>
+    <t>剑圣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霸天</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +121,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF24292E"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -136,8 +149,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -418,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -486,6 +500,14 @@
         <v>17</v>
       </c>
     </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
